--- a/output/fit_clients/fit_round_365.xlsx
+++ b/output/fit_clients/fit_round_365.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1850632790.671972</v>
+        <v>1867803353.437748</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101495163568185</v>
+        <v>0.1012947945733386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0378091191777828</v>
+        <v>0.03214839961083923</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>925316370.9442853</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2213883477.784219</v>
+        <v>2432052623.394141</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1570585183572196</v>
+        <v>0.1294487602847144</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05044177677874334</v>
+        <v>0.04738399545104554</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1106941812.085248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5117631852.61428</v>
+        <v>5055708858.953936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1043429281056876</v>
+        <v>0.1412133157333016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03711050527760443</v>
+        <v>0.03265919038581663</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>132</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2558816019.673278</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3071993570.44514</v>
+        <v>3447045000.433585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09457776795934919</v>
+        <v>0.1047128919855019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05006020383735281</v>
+        <v>0.04206897982071669</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>135</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1535996850.343198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2674107852.887106</v>
+        <v>2688458686.841793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1129165915864973</v>
+        <v>0.1233781176543185</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04610062940244597</v>
+        <v>0.05102611923060529</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1337053883.093754</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2001009366.34888</v>
+        <v>3056961923.015048</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07983052723582865</v>
+        <v>0.07867508427505276</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03365094773920134</v>
+        <v>0.0326194821366019</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1000504744.295832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3144149806.525558</v>
+        <v>3309707209.471997</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2065014985541737</v>
+        <v>0.1710888011075764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02591354088361967</v>
+        <v>0.02602717041286488</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>117</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1572074975.524875</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1704045405.03528</v>
+        <v>1586422517.946091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1679811213199477</v>
+        <v>0.1866913707677065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02582821666659014</v>
+        <v>0.02735352036763879</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>852022770.1935059</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5237475988.45041</v>
+        <v>4724525543.382284</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1706512265347139</v>
+        <v>0.1942964001000648</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05141799434238607</v>
+        <v>0.03705464666375843</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>153</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2618738111.921894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3510566603.22817</v>
+        <v>2852217293.253395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1420681625690836</v>
+        <v>0.1360036552452442</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04322560903762982</v>
+        <v>0.03527956771351637</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>151</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1755283280.175002</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2900475402.468931</v>
+        <v>2059542815.742425</v>
       </c>
       <c r="F12" t="n">
-        <v>0.169880609720308</v>
+        <v>0.1426730252053229</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03691017501244416</v>
+        <v>0.03313366942405961</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>125</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1450237710.154211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3498909242.572397</v>
+        <v>3431508055.172885</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07225938460949866</v>
+        <v>0.09986970487786467</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02732738164071122</v>
+        <v>0.02605106943855348</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>122</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1749454701.677872</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3263714664.53304</v>
+        <v>3734799063.03338</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1644335892227115</v>
+        <v>0.1179310534358315</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03538522279136999</v>
+        <v>0.0420114108855643</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1631857347.62108</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1127831687.340836</v>
+        <v>1530481886.023173</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07881905199785556</v>
+        <v>0.09719588379433704</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04192141842737276</v>
+        <v>0.03755556556904322</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>563915844.8101019</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2286395207.307075</v>
+        <v>2566153064.709133</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08781999506554339</v>
+        <v>0.08443311549343251</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03440562246592672</v>
+        <v>0.04698932020153482</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1143197653.566027</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4514691410.632034</v>
+        <v>3309479806.680053</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1320042334912932</v>
+        <v>0.1485349631010962</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04067051495526126</v>
+        <v>0.04102736695365093</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>106</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2257345714.493905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3224162104.427239</v>
+        <v>3879102549.597558</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1298486151207234</v>
+        <v>0.1271066563851261</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02777174769736714</v>
+        <v>0.03375069573841658</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>119</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1612081066.255795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1194056375.04396</v>
+        <v>1321936186.607095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1364397318893193</v>
+        <v>0.1820335176708245</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0177538174986624</v>
+        <v>0.02332254772616782</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>597028263.9838996</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2809001683.570899</v>
+        <v>2258425623.006325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1571091023030953</v>
+        <v>0.12061163133455</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03104747543395053</v>
+        <v>0.02361895191951439</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1404500781.97797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2367254905.047363</v>
+        <v>1747715273.875711</v>
       </c>
       <c r="F21" t="n">
-        <v>0.075162614035126</v>
+        <v>0.09151321706226749</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03006129509969191</v>
+        <v>0.03917620309869582</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1183627453.376749</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3328905520.573432</v>
+        <v>2818332872.126546</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09528048031637162</v>
+        <v>0.1097785999202676</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05272999876583651</v>
+        <v>0.03541927120770633</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1664452802.134809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1018998079.186802</v>
+        <v>1064618641.096854</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1190264624910526</v>
+        <v>0.1603331329517811</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03652214520969214</v>
+        <v>0.05117963197614531</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>509499106.5825255</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2551838653.507455</v>
+        <v>3669445106.966626</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1090178522901242</v>
+        <v>0.09582911097540241</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03230107767195236</v>
+        <v>0.03406119101880054</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1275919392.14503</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1277492795.087575</v>
+        <v>1133469138.038284</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08390546782956279</v>
+        <v>0.08814714763803166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02314127495738232</v>
+        <v>0.02429048579087433</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>638746397.6865551</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1233673969.569527</v>
+        <v>943487287.898482</v>
       </c>
       <c r="F26" t="n">
-        <v>0.104348071346567</v>
+        <v>0.09719411710194432</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03033909414980622</v>
+        <v>0.03461381881576975</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>616837014.042312</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3361504264.847876</v>
+        <v>4094498794.299854</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1080079766585296</v>
+        <v>0.1416285003189658</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02180652870471039</v>
+        <v>0.01782562333831825</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1680752174.280258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3819098566.912388</v>
+        <v>2948295019.31983</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1294515380719025</v>
+        <v>0.1343056617583694</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04626696473973056</v>
+        <v>0.03036262620024033</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1909549365.779913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4587850063.96374</v>
+        <v>4731820443.471968</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1093895838967535</v>
+        <v>0.1401557498589737</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03561125407606988</v>
+        <v>0.03718169961582472</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>161</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2293925008.113242</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1634004331.346024</v>
+        <v>1472827730.808637</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1080707531778741</v>
+        <v>0.08992571753321206</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03372208529311452</v>
+        <v>0.02826458106126098</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>817002161.4588203</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1230259843.418723</v>
+        <v>906011384.055644</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07321929438230002</v>
+        <v>0.07154266990921097</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0464549548332341</v>
+        <v>0.04003378000542664</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>615129866.0597069</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1404671085.787384</v>
+        <v>1481572468.250642</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09337216129789548</v>
+        <v>0.07975511932663686</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02460374867875621</v>
+        <v>0.03274342561751614</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>702335591.5087858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2651365434.609224</v>
+        <v>2004217926.058505</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1580183273254195</v>
+        <v>0.1355033272194156</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06127079566049681</v>
+        <v>0.0415008574329565</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>109</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1325682742.624359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1366097715.281872</v>
+        <v>1251632714.541667</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08509859929271091</v>
+        <v>0.09849334318982511</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02466282000331503</v>
+        <v>0.02530423385847377</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>683048835.4713961</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1349615753.606172</v>
+        <v>1181471226.501961</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09016533298330186</v>
+        <v>0.109352514902006</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02779595100186575</v>
+        <v>0.03778471747993598</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>674807818.7343681</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2038492793.573661</v>
+        <v>2690241670.138878</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1140875398589369</v>
+        <v>0.1459261160133636</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01785397678822896</v>
+        <v>0.02047748344802434</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1019246455.764596</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2322195919.0239</v>
+        <v>2404365824.569327</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1078173409008316</v>
+        <v>0.09371827175649916</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0357003877412266</v>
+        <v>0.03252669764999298</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1161098031.158088</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2123296137.737145</v>
+        <v>1736910757.230729</v>
       </c>
       <c r="F38" t="n">
-        <v>0.110205476639324</v>
+        <v>0.1170440532359803</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03483767772607602</v>
+        <v>0.03050172508489519</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1061648030.086241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1339509974.254934</v>
+        <v>1765789075.09099</v>
       </c>
       <c r="F39" t="n">
-        <v>0.176986670732135</v>
+        <v>0.122545967847444</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0264910210004512</v>
+        <v>0.02330013321275847</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>669755081.9298872</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1623821599.732357</v>
+        <v>1360535332.692129</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1122206802925199</v>
+        <v>0.1366907244641149</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04815292953327378</v>
+        <v>0.05762529129511702</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>811910735.0834587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2483911792.124969</v>
+        <v>2277463007.407136</v>
       </c>
       <c r="F41" t="n">
-        <v>0.100378274086223</v>
+        <v>0.1461183709342938</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04357153173474938</v>
+        <v>0.02938662251949037</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>93</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1241955922.907542</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3691464610.165407</v>
+        <v>4265559486.142801</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09613552789143567</v>
+        <v>0.08732931513497176</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03978627446320541</v>
+        <v>0.02910694450015361</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>122</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1845732313.115189</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2488703897.932092</v>
+        <v>1927862372.943713</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1908063017096244</v>
+        <v>0.1907709715177965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01679890821300832</v>
+        <v>0.02001577724795638</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>129</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1244351998.77373</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2138599233.757443</v>
+        <v>1626183772.050699</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06537396440521023</v>
+        <v>0.06999958017587077</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03329591402834509</v>
+        <v>0.03374501053688279</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1069299750.878288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2293274987.41568</v>
+        <v>1763815841.207983</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1795519100833745</v>
+        <v>0.1812146513937331</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04585120818236181</v>
+        <v>0.04873344496624382</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1146637514.181309</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4584092654.807984</v>
+        <v>4303156735.957399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1779003860136611</v>
+        <v>0.152966016952192</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04324806324496297</v>
+        <v>0.05440859722827207</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>130</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2292046330.400292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4388195309.65999</v>
+        <v>3887453241.705288</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1831668199126175</v>
+        <v>0.1999280005549067</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04690035218048177</v>
+        <v>0.05092870752964509</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>98</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2194097675.962742</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4319921066.83925</v>
+        <v>3356064884.632525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07777712227389881</v>
+        <v>0.08802397611673532</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03249212989680357</v>
+        <v>0.02747084868782118</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2159960549.233603</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1872209212.103299</v>
+        <v>1704688775.822693</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1510949963082191</v>
+        <v>0.1562327130119239</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04191512829056344</v>
+        <v>0.03845130123089089</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>936104580.2266065</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4194918298.924519</v>
+        <v>3419597961.284418</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1297701700841662</v>
+        <v>0.1502536885612551</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04637546543125542</v>
+        <v>0.03755629579530196</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>124</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2097459124.285833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1532039367.297887</v>
+        <v>1344571863.478518</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1915556700046556</v>
+        <v>0.1489411369772408</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05379662122759924</v>
+        <v>0.03569761658448277</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>766019681.3974992</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3924857226.049145</v>
+        <v>4324067631.497553</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1368678361769652</v>
+        <v>0.08485677030213147</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04926537901037128</v>
+        <v>0.03952926456659267</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>150</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1962428673.93368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2871331279.673502</v>
+        <v>3264091713.087243</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1753362695071865</v>
+        <v>0.1623194204041425</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03148511635091759</v>
+        <v>0.02474985085221657</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1435665681.1973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4640429357.557688</v>
+        <v>4176205515.805654</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1445693313833327</v>
+        <v>0.1492509363076022</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04396154155310884</v>
+        <v>0.04159705174784909</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2320214793.152818</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4715185190.724282</v>
+        <v>3245688801.609263</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2208588688218598</v>
+        <v>0.2042666937208428</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02502115088938361</v>
+        <v>0.03148872524737295</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>99</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2357592601.842522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1248154730.995278</v>
+        <v>1608751680.930843</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1185281765589552</v>
+        <v>0.1051805154624589</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04747535307656977</v>
+        <v>0.05318655815699256</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>624077445.091567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4495193316.852071</v>
+        <v>3794085984.374487</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1221200265295422</v>
+        <v>0.1359050015698385</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01724659644133333</v>
+        <v>0.01691104900877913</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>116</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2247596788.38285</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1440911582.50215</v>
+        <v>1260437993.186362</v>
       </c>
       <c r="F58" t="n">
-        <v>0.136909604554476</v>
+        <v>0.2007885361408753</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03260799185931799</v>
+        <v>0.02580244674916997</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>720455827.7810789</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4907117058.31972</v>
+        <v>5386773424.961528</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1097984646001702</v>
+        <v>0.1160792769948523</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04675527188429206</v>
+        <v>0.04504228930404574</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2453558461.35991</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2774672666.850412</v>
+        <v>2899259253.210219</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2044693161944631</v>
+        <v>0.1569837928076816</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0217596273344507</v>
+        <v>0.03064234080939568</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>113</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1387336380.149815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3241915621.750031</v>
+        <v>2473480351.096854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1411027659287075</v>
+        <v>0.125468243694994</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02165057081796921</v>
+        <v>0.03067749393086558</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>126</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1620957768.532665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1925665419.192947</v>
+        <v>1309377063.014598</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1749645263413437</v>
+        <v>0.1491890184576415</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03860088905060883</v>
+        <v>0.03717781426185278</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>962832756.5230101</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4056317821.516138</v>
+        <v>3569124604.951188</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0983272854988102</v>
+        <v>0.06861683795981466</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04677696062820642</v>
+        <v>0.04132910382265164</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2028158970.619829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4571057406.969903</v>
+        <v>4662381334.182293</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1788827646376147</v>
+        <v>0.1255905448731731</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0227562421780266</v>
+        <v>0.03335798269870587</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>113</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2285528779.527662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5685008651.205853</v>
+        <v>5816722859.43509</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1743395127632388</v>
+        <v>0.1068043449936724</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02897684119190515</v>
+        <v>0.02168577621182796</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>131</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2842504243.650367</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4864300414.847897</v>
+        <v>5588302302.257796</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1321600433287363</v>
+        <v>0.1343546029084193</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03902103320555166</v>
+        <v>0.03109711864926215</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2432150227.360603</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2545695376.859162</v>
+        <v>3354359386.802982</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07739110037167056</v>
+        <v>0.06675608539000158</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04855203907818206</v>
+        <v>0.03434973727922985</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>116</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1272847745.189885</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5394519072.3293</v>
+        <v>4167138465.970356</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1260471641795599</v>
+        <v>0.1524974889512068</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0406031785069996</v>
+        <v>0.03423976649358021</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>119</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2697259616.482101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1759203044.384136</v>
+        <v>2077854438.465337</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1634088140498758</v>
+        <v>0.1169124357393232</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05605002073366264</v>
+        <v>0.05083998585803218</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>879601496.0104895</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2797927967.090761</v>
+        <v>2290262951.929549</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07114541663239511</v>
+        <v>0.06216214628767113</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04582391711456159</v>
+        <v>0.04573398916936154</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>104</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1398963947.373693</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5241510965.07548</v>
+        <v>4369463992.278623</v>
       </c>
       <c r="F71" t="n">
-        <v>0.128399177670042</v>
+        <v>0.1496746978791282</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02429442299016471</v>
+        <v>0.03065311434222675</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>133</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2620755606.266093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1785506211.218142</v>
+        <v>2205258665.179136</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06863233953235839</v>
+        <v>0.08648351442435265</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04552206627019478</v>
+        <v>0.03737487490329689</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>892753086.5672605</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2218607230.065185</v>
+        <v>3413344269.829147</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08166659900084565</v>
+        <v>0.07962341585549521</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04689946462795348</v>
+        <v>0.03924243093072682</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>139</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1109303682.593335</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3408352513.015417</v>
+        <v>3082047630.73781</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1357649916256921</v>
+        <v>0.1564589038425135</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03134470297238492</v>
+        <v>0.02829636041627915</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>124</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1704176286.610348</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2294319924.471894</v>
+        <v>2500783542.463459</v>
       </c>
       <c r="F75" t="n">
-        <v>0.134745155068696</v>
+        <v>0.1260928087122626</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03728562751988878</v>
+        <v>0.02709731309385295</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1147159898.839415</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4785557701.710503</v>
+        <v>3415529222.293454</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08326840340179856</v>
+        <v>0.1047903326095251</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03053384635755298</v>
+        <v>0.0311858445373439</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2392778868.493152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2306382665.285103</v>
+        <v>2169990910.831776</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1762219968256608</v>
+        <v>0.1646054999816216</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02808198235472881</v>
+        <v>0.0220943742003177</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1153191439.400377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2957842332.671043</v>
+        <v>3965305431.793033</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1228112901366572</v>
+        <v>0.1347568762092687</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04687855081594317</v>
+        <v>0.0561755054258169</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>127</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1478921206.656353</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1851964461.876916</v>
+        <v>1591136548.820221</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1435031284078294</v>
+        <v>0.1483964198295076</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02625107672152935</v>
+        <v>0.02511939379805706</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>925982326.6930012</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4048211701.286782</v>
+        <v>4146870759.957916</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1071482779674859</v>
+        <v>0.08324108687266928</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03610217533457528</v>
+        <v>0.02990224822980532</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2024105852.508629</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3483996293.888799</v>
+        <v>4813513263.468533</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09143840764475569</v>
+        <v>0.1160391990226986</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03291349621322574</v>
+        <v>0.03112831244985795</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>84</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1741998090.988598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4621840450.047867</v>
+        <v>4991890190.189743</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1440359754467476</v>
+        <v>0.1997854913632325</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02635945663165683</v>
+        <v>0.02342734400443365</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>128</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2310920230.094933</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2245352220.878637</v>
+        <v>1725378812.436066</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1407042311578088</v>
+        <v>0.1515383605259533</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0278456865831299</v>
+        <v>0.04237772347022271</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1122676126.299566</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1600894424.340191</v>
+        <v>2434751960.811004</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09951623392611093</v>
+        <v>0.1120023082538358</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04087731148023382</v>
+        <v>0.05061132152695247</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>800447275.642084</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2376110394.808655</v>
+        <v>3131612159.30974</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1685987076348108</v>
+        <v>0.1205748987352894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0465189227686846</v>
+        <v>0.05269549820577479</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>137</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1188055188.675625</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2471009799.404419</v>
+        <v>2459656616.305233</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1230978105417849</v>
+        <v>0.1609870937588078</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02631111888131362</v>
+        <v>0.01724201106865094</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>49</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1235504992.822841</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1484068110.94829</v>
+        <v>1271595376.784792</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1873085992513139</v>
+        <v>0.1376189809736107</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03098289556168484</v>
+        <v>0.03709414373761291</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>742034183.8692218</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3715608762.926188</v>
+        <v>2900174816.080943</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1343463375183243</v>
+        <v>0.1383020617655643</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03783707426992839</v>
+        <v>0.03942064777938079</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>145</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1857804482.63588</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3355236763.244176</v>
+        <v>2251237896.47987</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1455935006165619</v>
+        <v>0.1526384706644801</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03072017862922881</v>
+        <v>0.02575983525858122</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>123</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1677618393.715752</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2139247210.81001</v>
+        <v>1313545458.231532</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1313580843072522</v>
+        <v>0.1163206284621601</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05469954144497213</v>
+        <v>0.04791866902328217</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1069623701.119358</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1974090533.179235</v>
+        <v>1507510604.904498</v>
       </c>
       <c r="F91" t="n">
-        <v>0.125873841481918</v>
+        <v>0.1506997530990536</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05830273762250914</v>
+        <v>0.03788103999849204</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>987045242.3054163</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2646107937.037777</v>
+        <v>2349573471.285718</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07905454230427207</v>
+        <v>0.07443581964384299</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03521799525359506</v>
+        <v>0.03059926066970188</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>102</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1323053963.508985</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3790514079.637497</v>
+        <v>4242035016.92731</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08714649216991106</v>
+        <v>0.1245574822804684</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05366539783050511</v>
+        <v>0.04069123793820427</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1895257054.006398</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2160417975.955108</v>
+        <v>1548425867.574465</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1108742483648956</v>
+        <v>0.1621054849825482</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04087681736260379</v>
+        <v>0.0418021457785592</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1080209007.204668</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2521282688.196311</v>
+        <v>2339166908.809416</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1228949024319694</v>
+        <v>0.1213108417015114</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03250974390960266</v>
+        <v>0.04140000837714503</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1260641378.634243</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1908247414.587308</v>
+        <v>1617892223.733854</v>
       </c>
       <c r="F96" t="n">
-        <v>0.101103013310591</v>
+        <v>0.1085811107362545</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04196127061732168</v>
+        <v>0.04144904955391304</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>954123704.0929818</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4158069901.641352</v>
+        <v>3376177030.631487</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1481088220397871</v>
+        <v>0.1225915809218527</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02167670905471603</v>
+        <v>0.02854127053962184</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>116</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2079035019.918451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3716690658.467618</v>
+        <v>2504084275.369956</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1127776107617256</v>
+        <v>0.1080999904056947</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02507861280499851</v>
+        <v>0.02617039543956316</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1858345362.545124</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3426116756.80954</v>
+        <v>2368664014.323742</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1148412149862456</v>
+        <v>0.1450187807187585</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03178684596071126</v>
+        <v>0.02734669607071666</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>115</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1713058395.243123</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2921812963.904402</v>
+        <v>3398359736.59142</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1228289558971743</v>
+        <v>0.1174189537731461</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02732261446617905</v>
+        <v>0.02116891605978215</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>112</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1460906466.570901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2201828533.854495</v>
+        <v>2252572856.528791</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2063428629791703</v>
+        <v>0.1392325222468332</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04421950331846752</v>
+        <v>0.0421974670531703</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>149</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1100914250.518025</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_365.xlsx
+++ b/output/fit_clients/fit_round_365.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1867803353.437748</v>
+        <v>2459854475.054018</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1012947945733386</v>
+        <v>0.1136279180154907</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03214839961083923</v>
+        <v>0.03203175165143751</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2432052623.394141</v>
+        <v>1679179067.763552</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1294487602847144</v>
+        <v>0.1540966201456107</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04738399545104554</v>
+        <v>0.04525260975353301</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5055708858.953936</v>
+        <v>4493761060.236622</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1412133157333016</v>
+        <v>0.166589571781176</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03265919038581663</v>
+        <v>0.03659339417317367</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3447045000.433585</v>
+        <v>2925335758.051432</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1047128919855019</v>
+        <v>0.06716048338541397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04206897982071669</v>
+        <v>0.0321192696348117</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2688458686.841793</v>
+        <v>2598486413.131551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1233781176543185</v>
+        <v>0.1289561871783709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05102611923060529</v>
+        <v>0.04898913813367532</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3056961923.015048</v>
+        <v>2952200150.873913</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07867508427505276</v>
+        <v>0.06286841438133703</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0326194821366019</v>
+        <v>0.04653575014018208</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3309707209.471997</v>
+        <v>2791895261.576953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1710888011075764</v>
+        <v>0.1400874417156205</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02602717041286488</v>
+        <v>0.02098948271135929</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1586422517.946091</v>
+        <v>1894943976.919795</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1866913707677065</v>
+        <v>0.1197470362544458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02735352036763879</v>
+        <v>0.02401446422062736</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4724525543.382284</v>
+        <v>5212238617.884066</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1942964001000648</v>
+        <v>0.1425670675567136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03705464666375843</v>
+        <v>0.04917951682316356</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2852217293.253395</v>
+        <v>4222234405.584558</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1360036552452442</v>
+        <v>0.1499069670198434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03527956771351637</v>
+        <v>0.03049759920493556</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2059542815.742425</v>
+        <v>2573410100.797082</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1426730252053229</v>
+        <v>0.1892296906271148</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03313366942405961</v>
+        <v>0.04933211152951476</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3431508055.172885</v>
+        <v>3221435358.931032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09986970487786467</v>
+        <v>0.07780052131784379</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02605106943855348</v>
+        <v>0.02786637573393411</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3734799063.03338</v>
+        <v>2866704290.378234</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1179310534358315</v>
+        <v>0.1702463662258879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0420114108855643</v>
+        <v>0.03769600814783076</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1530481886.023173</v>
+        <v>1173291710.69947</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09719588379433704</v>
+        <v>0.08243220315441437</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03755556556904322</v>
+        <v>0.03746443878033295</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2566153064.709133</v>
+        <v>2704554731.1764</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08443311549343251</v>
+        <v>0.07761090379030158</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04698932020153482</v>
+        <v>0.03916817512681777</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3309479806.680053</v>
+        <v>4650351063.593299</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1485349631010962</v>
+        <v>0.1308453152432839</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04102736695365093</v>
+        <v>0.05168003928086558</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3879102549.597558</v>
+        <v>2415018002.833208</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1271066563851261</v>
+        <v>0.1257594670493688</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03375069573841658</v>
+        <v>0.02171536318419175</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1321936186.607095</v>
+        <v>1268151800.971464</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1820335176708245</v>
+        <v>0.1465076999624651</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02332254772616782</v>
+        <v>0.01945541360167559</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2258425623.006325</v>
+        <v>2695580696.849584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.12061163133455</v>
+        <v>0.1601677012953897</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02361895191951439</v>
+        <v>0.02633817024565117</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1747715273.875711</v>
+        <v>1917595701.491102</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09151321706226749</v>
+        <v>0.07958200615723164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03917620309869582</v>
+        <v>0.04600084629643535</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2818332872.126546</v>
+        <v>2705213227.579046</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1097785999202676</v>
+        <v>0.115769669997506</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03541927120770633</v>
+        <v>0.03867399904707107</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1064618641.096854</v>
+        <v>1021988420.888722</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1603331329517811</v>
+        <v>0.1634934925546159</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05117963197614531</v>
+        <v>0.03507941534199489</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3669445106.966626</v>
+        <v>2636769182.358272</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09582911097540241</v>
+        <v>0.1426128878446437</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03406119101880054</v>
+        <v>0.02693290794206194</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1133469138.038284</v>
+        <v>1402170859.406987</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08814714763803166</v>
+        <v>0.08503692194094563</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02429048579087433</v>
+        <v>0.02620538416428191</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>943487287.898482</v>
+        <v>1100209084.949333</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09719411710194432</v>
+        <v>0.1094628648296363</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03461381881576975</v>
+        <v>0.03171705911021653</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4094498794.299854</v>
+        <v>3311569159.396076</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1416285003189658</v>
+        <v>0.1559364601030147</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01782562333831825</v>
+        <v>0.02118454797482024</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2948295019.31983</v>
+        <v>3411468459.827657</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1343056617583694</v>
+        <v>0.1478700561218329</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03036262620024033</v>
+        <v>0.04557073364080209</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4731820443.471968</v>
+        <v>5137541793.942545</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1401557498589737</v>
+        <v>0.104283481817</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03718169961582472</v>
+        <v>0.03022063199845952</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1472827730.808637</v>
+        <v>1675560293.029304</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08992571753321206</v>
+        <v>0.1399076641774862</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02826458106126098</v>
+        <v>0.02855370813647997</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>906011384.055644</v>
+        <v>1153338882.118657</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07154266990921097</v>
+        <v>0.08178911324737451</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04003378000542664</v>
+        <v>0.04014996837452336</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1481572468.250642</v>
+        <v>1233942068.774025</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07975511932663686</v>
+        <v>0.08360465267131492</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03274342561751614</v>
+        <v>0.03262646320257259</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2004217926.058505</v>
+        <v>2327953097.744396</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1355033272194156</v>
+        <v>0.1522677388467561</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0415008574329565</v>
+        <v>0.03717843559386548</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1251632714.541667</v>
+        <v>971955400.9791778</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09849334318982511</v>
+        <v>0.07914642480592023</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02530423385847377</v>
+        <v>0.01814423316783589</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1181471226.501961</v>
+        <v>1069929277.643959</v>
       </c>
       <c r="F35" t="n">
-        <v>0.109352514902006</v>
+        <v>0.09429289100344911</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03778471747993598</v>
+        <v>0.0281977042104191</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2690241670.138878</v>
+        <v>2142140970.110013</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1459261160133636</v>
+        <v>0.1451616409830921</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02047748344802434</v>
+        <v>0.01949303174658393</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2404365824.569327</v>
+        <v>2322220225.868421</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09371827175649916</v>
+        <v>0.09293477648107649</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03252669764999298</v>
+        <v>0.03035874998154786</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1736910757.230729</v>
+        <v>1699568936.778247</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1170440532359803</v>
+        <v>0.1219598784531973</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03050172508489519</v>
+        <v>0.03125389638048192</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1765789075.09099</v>
+        <v>1607537105.499994</v>
       </c>
       <c r="F39" t="n">
-        <v>0.122545967847444</v>
+        <v>0.1686718447670199</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02330013321275847</v>
+        <v>0.03187884911150059</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1360535332.692129</v>
+        <v>1748874738.568365</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1366907244641149</v>
+        <v>0.1095546845854728</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05762529129511702</v>
+        <v>0.04495681461417521</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2277463007.407136</v>
+        <v>2399222343.914326</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1461183709342938</v>
+        <v>0.1614146658147995</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02938662251949037</v>
+        <v>0.03356548572734482</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4265559486.142801</v>
+        <v>4171618585.267008</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08732931513497176</v>
+        <v>0.0842284956840087</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02910694450015361</v>
+        <v>0.03155711214755776</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1927862372.943713</v>
+        <v>2453929114.788322</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1907709715177965</v>
+        <v>0.1574696877239433</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02001577724795638</v>
+        <v>0.02287820209167468</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1626183772.050699</v>
+        <v>1592740602.274633</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06999958017587077</v>
+        <v>0.09832725832457292</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03374501053688279</v>
+        <v>0.03015750720489123</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1763815841.207983</v>
+        <v>2457842973.974422</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1812146513937331</v>
+        <v>0.123531184541827</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04873344496624382</v>
+        <v>0.03941452820282296</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4303156735.957399</v>
+        <v>4426969739.489801</v>
       </c>
       <c r="F46" t="n">
-        <v>0.152966016952192</v>
+        <v>0.170956934813258</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05440859722827207</v>
+        <v>0.05799256743679431</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3887453241.705288</v>
+        <v>4513725865.626801</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1999280005549067</v>
+        <v>0.1750367567106165</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05092870752964509</v>
+        <v>0.04116158267918536</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3356064884.632525</v>
+        <v>3296214862.403954</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08802397611673532</v>
+        <v>0.08478916489360248</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02747084868782118</v>
+        <v>0.03283151694526255</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1704688775.822693</v>
+        <v>1380216939.004973</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1562327130119239</v>
+        <v>0.1346364604429933</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03845130123089089</v>
+        <v>0.02922100968383321</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3419597961.284418</v>
+        <v>3731287950.882405</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1502536885612551</v>
+        <v>0.1640850714641138</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03755629579530196</v>
+        <v>0.04472380375228194</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1344571863.478518</v>
+        <v>975549441.7910348</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1489411369772408</v>
+        <v>0.1687732226564606</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03569761658448277</v>
+        <v>0.0369150167667028</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4324067631.497553</v>
+        <v>3527791691.459551</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08485677030213147</v>
+        <v>0.1213831051164368</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03952926456659267</v>
+        <v>0.05747223905350349</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3264091713.087243</v>
+        <v>2943588563.94393</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1623194204041425</v>
+        <v>0.1637630155606972</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02474985085221657</v>
+        <v>0.02773796066443128</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4176205515.805654</v>
+        <v>3418043650.41297</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1492509363076022</v>
+        <v>0.1371182569895871</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04159705174784909</v>
+        <v>0.0460668460796848</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3245688801.609263</v>
+        <v>3341577778.96894</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2042666937208428</v>
+        <v>0.1964410271875077</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03148872524737295</v>
+        <v>0.02734450209572077</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1608751680.930843</v>
+        <v>1549463851.244389</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1051805154624589</v>
+        <v>0.1543926094229055</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05318655815699256</v>
+        <v>0.03662621733575098</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3794085984.374487</v>
+        <v>3999841555.152404</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1359050015698385</v>
+        <v>0.1173617938153029</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01691104900877913</v>
+        <v>0.02076935623139421</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1260437993.186362</v>
+        <v>1632913050.966116</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2007885361408753</v>
+        <v>0.1621558316253356</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02580244674916997</v>
+        <v>0.03147826839121422</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5386773424.961528</v>
+        <v>4594217483.969851</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160792769948523</v>
+        <v>0.1252944755332896</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04504228930404574</v>
+        <v>0.03621954236637249</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2899259253.210219</v>
+        <v>3243012398.424986</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1569837928076816</v>
+        <v>0.1600531385941473</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03064234080939568</v>
+        <v>0.02861967201658584</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2473480351.096854</v>
+        <v>2471659738.059992</v>
       </c>
       <c r="F61" t="n">
-        <v>0.125468243694994</v>
+        <v>0.1325555692340539</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03067749393086558</v>
+        <v>0.02784498778292779</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1309377063.014598</v>
+        <v>1443772980.181582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1491890184576415</v>
+        <v>0.1510158318986633</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03717781426185278</v>
+        <v>0.03444253289520128</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3569124604.951188</v>
+        <v>3911549883.894137</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06861683795981466</v>
+        <v>0.09959146190962187</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04132910382265164</v>
+        <v>0.04680217415304637</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4662381334.182293</v>
+        <v>3793577496.020635</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1255905448731731</v>
+        <v>0.1541547227987713</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03335798269870587</v>
+        <v>0.03555731511411139</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5816722859.43509</v>
+        <v>4764879782.471924</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1068043449936724</v>
+        <v>0.1474517087307836</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02168577621182796</v>
+        <v>0.02427207864653137</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5588302302.257796</v>
+        <v>4843594399.146831</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1343546029084193</v>
+        <v>0.1541592787193513</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03109711864926215</v>
+        <v>0.04417213379025599</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3354359386.802982</v>
+        <v>2533422678.26976</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06675608539000158</v>
+        <v>0.09806843826438025</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03434973727922985</v>
+        <v>0.03227814380820275</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4167138465.970356</v>
+        <v>5707252940.597044</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1524974889512068</v>
+        <v>0.1201895612311205</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03423976649358021</v>
+        <v>0.04086518901603664</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2077854438.465337</v>
+        <v>1620076578.258764</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1169124357393232</v>
+        <v>0.132470410511424</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05083998585803218</v>
+        <v>0.03789908319204575</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2290262951.929549</v>
+        <v>3685143233.525559</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06216214628767113</v>
+        <v>0.08637385800285866</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04573398916936154</v>
+        <v>0.04364831529559703</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4369463992.278623</v>
+        <v>5189002640.621006</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1496746978791282</v>
+        <v>0.1470943840028366</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03065311434222675</v>
+        <v>0.02550129260156254</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2205258665.179136</v>
+        <v>1926797160.008912</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08648351442435265</v>
+        <v>0.08170783539147404</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03737487490329689</v>
+        <v>0.03857582202652398</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3413344269.829147</v>
+        <v>2342801219.766796</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07962341585549521</v>
+        <v>0.06931365156478944</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03924243093072682</v>
+        <v>0.03550778903512973</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3082047630.73781</v>
+        <v>3210877523.926401</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1564589038425135</v>
+        <v>0.1192162718738399</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02829636041627915</v>
+        <v>0.02459792548982834</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2500783542.463459</v>
+        <v>1681647549.636427</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1260928087122626</v>
+        <v>0.1348925283516871</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02709731309385295</v>
+        <v>0.0306913218715861</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3415529222.293454</v>
+        <v>4035432992.823987</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1047903326095251</v>
+        <v>0.1038279275222543</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0311858445373439</v>
+        <v>0.0310491297035922</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2169990910.831776</v>
+        <v>1400725196.707558</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1646054999816216</v>
+        <v>0.1448911274761517</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0220943742003177</v>
+        <v>0.02052248222548102</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3965305431.793033</v>
+        <v>4169131994.729176</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1347568762092687</v>
+        <v>0.0861228661409507</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0561755054258169</v>
+        <v>0.03490811684869897</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1591136548.820221</v>
+        <v>1892042257.444471</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1483964198295076</v>
+        <v>0.1251723370655415</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02511939379805706</v>
+        <v>0.02767501363609258</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4146870759.957916</v>
+        <v>4385894053.409127</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08324108687266928</v>
+        <v>0.06920203876284284</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02990224822980532</v>
+        <v>0.0335983350890917</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4813513263.468533</v>
+        <v>3885149631.036557</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1160391990226986</v>
+        <v>0.1191435929912194</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03112831244985795</v>
+        <v>0.03157835145191943</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4991890190.189743</v>
+        <v>4583870805.746346</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1997854913632325</v>
+        <v>0.1445603498002849</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02342734400443365</v>
+        <v>0.02938993450782954</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1725378812.436066</v>
+        <v>1901772103.083137</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1515383605259533</v>
+        <v>0.1492978758777644</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04237772347022271</v>
+        <v>0.02830414034456977</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2434751960.811004</v>
+        <v>1592499062.918243</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1120023082538358</v>
+        <v>0.07826351156256567</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05061132152695247</v>
+        <v>0.03919051980220933</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3131612159.30974</v>
+        <v>2323828209.000764</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1205748987352894</v>
+        <v>0.1742743168380927</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05269549820577479</v>
+        <v>0.04518588908517825</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2459656616.305233</v>
+        <v>2587921322.369009</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1609870937588078</v>
+        <v>0.1342014212313781</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01724201106865094</v>
+        <v>0.02217924134098988</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1271595376.784792</v>
+        <v>1057392165.951993</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1376189809736107</v>
+        <v>0.1644700986132793</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03709414373761291</v>
+        <v>0.03124105761143212</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2900174816.080943</v>
+        <v>2901534337.083161</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1383020617655643</v>
+        <v>0.1676060176375513</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03942064777938079</v>
+        <v>0.03775731995758845</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2251237896.47987</v>
+        <v>3006180751.776268</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1526384706644801</v>
+        <v>0.1555340354416015</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02575983525858122</v>
+        <v>0.04079791701500285</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1313545458.231532</v>
+        <v>1691948623.08861</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1163206284621601</v>
+        <v>0.1366216880807782</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04791866902328217</v>
+        <v>0.03466465037957175</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1507510604.904498</v>
+        <v>1314748834.850447</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1506997530990536</v>
+        <v>0.1577669843062124</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03788103999849204</v>
+        <v>0.05018731139600876</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2349573471.285718</v>
+        <v>2213340546.304636</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07443581964384299</v>
+        <v>0.1011473020387482</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03059926066970188</v>
+        <v>0.04151166961051719</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4242035016.92731</v>
+        <v>4097218251.721099</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1245574822804684</v>
+        <v>0.1324862283702337</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04069123793820427</v>
+        <v>0.04264602317178354</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1548425867.574465</v>
+        <v>2270703860.647295</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1621054849825482</v>
+        <v>0.1415998709725408</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0418021457785592</v>
+        <v>0.02751127278875789</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2339166908.809416</v>
+        <v>2040602783.208184</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1213108417015114</v>
+        <v>0.1314032625667702</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04140000837714503</v>
+        <v>0.04706748928217688</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1617892223.733854</v>
+        <v>2132344143.261501</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1085811107362545</v>
+        <v>0.09168796838777239</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04144904955391304</v>
+        <v>0.04298908670988157</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3376177030.631487</v>
+        <v>4536844222.478539</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1225915809218527</v>
+        <v>0.1746391035912405</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02854127053962184</v>
+        <v>0.01891993990124399</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2504084275.369956</v>
+        <v>3952159211.500267</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1080999904056947</v>
+        <v>0.1043536115226737</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02617039543956316</v>
+        <v>0.03099594050739742</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2368664014.323742</v>
+        <v>3229302109.083975</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1450187807187585</v>
+        <v>0.1028936119592773</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02734669607071666</v>
+        <v>0.02306694791719176</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3398359736.59142</v>
+        <v>4420337064.519365</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1174189537731461</v>
+        <v>0.1771653813560395</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02116891605978215</v>
+        <v>0.02342631813529639</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2252572856.528791</v>
+        <v>2344067999.870894</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1392325222468332</v>
+        <v>0.1699465785560488</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0421974670531703</v>
+        <v>0.04200486638513043</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_365.xlsx
+++ b/output/fit_clients/fit_round_365.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2459854475.054018</v>
+        <v>1830460288.99166</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1136279180154907</v>
+        <v>0.07289853361389598</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03203175165143751</v>
+        <v>0.03719520887079056</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1679179067.763552</v>
+        <v>1867298793.695019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1540966201456107</v>
+        <v>0.1690903179796968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04525260975353301</v>
+        <v>0.04894291826081874</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4493761060.236622</v>
+        <v>3770382193.823887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.166589571781176</v>
+        <v>0.1339423011304023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03659339417317367</v>
+        <v>0.03025589839096469</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>188</v>
+      </c>
+      <c r="J4" t="n">
+        <v>365</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2925335758.051432</v>
+        <v>3647014441.310075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06716048338541397</v>
+        <v>0.08722957257927802</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0321192696348117</v>
+        <v>0.04879861110867297</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>147</v>
+      </c>
+      <c r="J5" t="n">
+        <v>365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74.05718560508879</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2598486413.131551</v>
+        <v>1773575436.543448</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1289561871783709</v>
+        <v>0.1392087217080187</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04898913813367532</v>
+        <v>0.04465731597312957</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2952200150.873913</v>
+        <v>3144094336.465796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06286841438133703</v>
+        <v>0.06733455441870462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04653575014018208</v>
+        <v>0.03700358735880102</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2791895261.576953</v>
+        <v>3627224414.235516</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1400874417156205</v>
+        <v>0.1632276615335733</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02098948271135929</v>
+        <v>0.02530547978022931</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>365</v>
+      </c>
+      <c r="K8" t="n">
+        <v>73.77863430524646</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1894943976.919795</v>
+        <v>1451243924.378103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1197470362544458</v>
+        <v>0.1397270848703566</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02401446422062736</v>
+        <v>0.0241446447266579</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5212238617.884066</v>
+        <v>5153624273.671155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1425670675567136</v>
+        <v>0.1767601306607145</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04917951682316356</v>
+        <v>0.03425490358567977</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>304</v>
+      </c>
+      <c r="J10" t="n">
+        <v>364</v>
+      </c>
+      <c r="K10" t="n">
+        <v>57.24296769902384</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4222234405.584558</v>
+        <v>2672208972.942271</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1499069670198434</v>
+        <v>0.1866801600153075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03049759920493556</v>
+        <v>0.04349237170925361</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>153</v>
+      </c>
+      <c r="J11" t="n">
+        <v>364</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35.25913016058018</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2573410100.797082</v>
+        <v>3150390202.676319</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1892296906271148</v>
+        <v>0.1587385008696856</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04933211152951476</v>
+        <v>0.03957467116699756</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +894,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3221435358.931032</v>
+        <v>3416838374.577224</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07780052131784379</v>
+        <v>0.097712179146038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02786637573393411</v>
+        <v>0.01910696649842878</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>189</v>
+      </c>
+      <c r="J13" t="n">
+        <v>365</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2866704290.378234</v>
+        <v>2958904803.431644</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1702463662258879</v>
+        <v>0.1357941775424244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03769600814783076</v>
+        <v>0.04089055339789417</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1173291710.69947</v>
+        <v>1827663235.717865</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08243220315441437</v>
+        <v>0.09217980142058003</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03746443878033295</v>
+        <v>0.04422905889156625</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2704554731.1764</v>
+        <v>1759540460.315755</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07761090379030158</v>
+        <v>0.0748681763395407</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03916817512681777</v>
+        <v>0.05143675826982166</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4650351063.593299</v>
+        <v>4597515413.598297</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1308453152432839</v>
+        <v>0.121229873379463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05168003928086558</v>
+        <v>0.03991239048926026</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>172</v>
+      </c>
+      <c r="J17" t="n">
+        <v>365</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2415018002.833208</v>
+        <v>3198237581.068636</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1257594670493688</v>
+        <v>0.1437323049732118</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02171536318419175</v>
+        <v>0.03073869086516198</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>89</v>
+      </c>
+      <c r="J18" t="n">
+        <v>362</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1268151800.971464</v>
+        <v>881311723.1384917</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1465076999624651</v>
+        <v>0.1536168343326206</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01945541360167559</v>
+        <v>0.01700294404387634</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2695580696.849584</v>
+        <v>2781242517.810628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1601677012953897</v>
+        <v>0.1165195229731634</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02633817024565117</v>
+        <v>0.02596290964120443</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1917595701.491102</v>
+        <v>2364661344.53866</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07958200615723164</v>
+        <v>0.07222813236098651</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04600084629643535</v>
+        <v>0.04572652378437248</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2705213227.579046</v>
+        <v>3694969934.640998</v>
       </c>
       <c r="F22" t="n">
-        <v>0.115769669997506</v>
+        <v>0.1449024666329995</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03867399904707107</v>
+        <v>0.05638202082479905</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" t="n">
+        <v>365</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1021988420.888722</v>
+        <v>1026704450.525101</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1634934925546159</v>
+        <v>0.1756235190685758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03507941534199489</v>
+        <v>0.04249486625748623</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2636769182.358272</v>
+        <v>3007601599.464115</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426128878446437</v>
+        <v>0.1415649674442176</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02693290794206194</v>
+        <v>0.02736455785460255</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>112</v>
+      </c>
+      <c r="J24" t="n">
+        <v>363</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1402170859.406987</v>
+        <v>892212783.8883886</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08503692194094563</v>
+        <v>0.1085291416588107</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02620538416428191</v>
+        <v>0.02349546544228333</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1100209084.949333</v>
+        <v>1177168598.811918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1094628648296363</v>
+        <v>0.1209082801927339</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03171705911021653</v>
+        <v>0.03693788586669076</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3311569159.396076</v>
+        <v>3536223704.582704</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1559364601030147</v>
+        <v>0.1135897793449485</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02118454797482024</v>
+        <v>0.02441306832404611</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>153</v>
+      </c>
+      <c r="J27" t="n">
+        <v>364</v>
+      </c>
+      <c r="K27" t="n">
+        <v>56.01531131628981</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3411468459.827657</v>
+        <v>2805938708.175674</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1478700561218329</v>
+        <v>0.1031554162269348</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04557073364080209</v>
+        <v>0.04867371541053105</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5137541793.942545</v>
+        <v>5927579356.790444</v>
       </c>
       <c r="F29" t="n">
-        <v>0.104283481817</v>
+        <v>0.0968125904667132</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03022063199845952</v>
+        <v>0.04249228520169567</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>320</v>
+      </c>
+      <c r="J29" t="n">
+        <v>365</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1675560293.029304</v>
+        <v>1695398130.733096</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1399076641774862</v>
+        <v>0.1272172976939989</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02855370813647997</v>
+        <v>0.02508800110610625</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1153338882.118657</v>
+        <v>1145377094.107095</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08178911324737451</v>
+        <v>0.08083295923391347</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04014996837452336</v>
+        <v>0.03438825508721308</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1233942068.774025</v>
+        <v>1783354504.469441</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08360465267131492</v>
+        <v>0.110999421460688</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03262646320257259</v>
+        <v>0.03844538222237413</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2327953097.744396</v>
+        <v>1991151121.113364</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1522677388467561</v>
+        <v>0.1701716925241772</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03717843559386548</v>
+        <v>0.04540621734816052</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>971955400.9791778</v>
+        <v>1349451935.435303</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07914642480592023</v>
+        <v>0.07607780708156069</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01814423316783589</v>
+        <v>0.01950893537204738</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1069929277.643959</v>
+        <v>1003240778.189979</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09429289100344911</v>
+        <v>0.1045682996221598</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0281977042104191</v>
+        <v>0.03354714171772386</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2142140970.110013</v>
+        <v>2728404327.845075</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1451616409830921</v>
+        <v>0.125109084575199</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01949303174658393</v>
+        <v>0.02665873648274409</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2322220225.868421</v>
+        <v>1886445013.003456</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09293477648107649</v>
+        <v>0.07623792454468616</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03035874998154786</v>
+        <v>0.03554008231218932</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1699568936.778247</v>
+        <v>1639797464.04376</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1219598784531973</v>
+        <v>0.0756462882478703</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03125389638048192</v>
+        <v>0.0395647742225556</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1607537105.499994</v>
+        <v>1621802599.964639</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1686718447670199</v>
+        <v>0.1859016555555354</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03187884911150059</v>
+        <v>0.0328947945223399</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1748874738.568365</v>
+        <v>1538293294.927983</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1095546845854728</v>
+        <v>0.1321180611909334</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04495681461417521</v>
+        <v>0.05788971297656463</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2399222343.914326</v>
+        <v>2342927791.68631</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1614146658147995</v>
+        <v>0.1125407422394885</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03356548572734482</v>
+        <v>0.04465698938190457</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4171618585.267008</v>
+        <v>3372444353.780452</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0842284956840087</v>
+        <v>0.08679936126483226</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03155711214755776</v>
+        <v>0.0282317662796175</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>162</v>
+      </c>
+      <c r="J42" t="n">
+        <v>364</v>
+      </c>
+      <c r="K42" t="n">
+        <v>52.67340955757715</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2453929114.788322</v>
+        <v>2202606109.00991</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1574696877239433</v>
+        <v>0.1999773066489353</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02287820209167468</v>
+        <v>0.02127784708503666</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1592740602.274633</v>
+        <v>2357505280.090611</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09832725832457292</v>
+        <v>0.06295335239180294</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03015750720489123</v>
+        <v>0.02864176329387546</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2457842973.974422</v>
+        <v>1601352168.111181</v>
       </c>
       <c r="F45" t="n">
-        <v>0.123531184541827</v>
+        <v>0.1264459213027766</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03941452820282296</v>
+        <v>0.03688558885135172</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4426969739.489801</v>
+        <v>4706600697.442639</v>
       </c>
       <c r="F46" t="n">
-        <v>0.170956934813258</v>
+        <v>0.1219651136785244</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05799256743679431</v>
+        <v>0.05240736912996518</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>219</v>
+      </c>
+      <c r="J46" t="n">
+        <v>364</v>
+      </c>
+      <c r="K46" t="n">
+        <v>58.30203898193734</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4513725865.626801</v>
+        <v>4222965995.709408</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1750367567106165</v>
+        <v>0.1765949131525822</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04116158267918536</v>
+        <v>0.05434983956338531</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>163</v>
+      </c>
+      <c r="J47" t="n">
+        <v>364</v>
+      </c>
+      <c r="K47" t="n">
+        <v>53.49278077627013</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3296214862.403954</v>
+        <v>3157382070.152777</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08478916489360248</v>
+        <v>0.0828850878635741</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03283151694526255</v>
+        <v>0.03877871048212745</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>187</v>
+      </c>
+      <c r="J48" t="n">
+        <v>364</v>
+      </c>
+      <c r="K48" t="n">
+        <v>44.4561707440089</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1380216939.004973</v>
+        <v>1378590571.533669</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1346364604429933</v>
+        <v>0.1308003543002151</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02922100968383321</v>
+        <v>0.04378218284512706</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3731287950.882405</v>
+        <v>3870505920.390317</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1640850714641138</v>
+        <v>0.1689942004811814</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04472380375228194</v>
+        <v>0.04509635817471239</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>121</v>
+      </c>
+      <c r="J50" t="n">
+        <v>365</v>
+      </c>
+      <c r="K50" t="n">
+        <v>69.03100837404195</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>975549441.7910348</v>
+        <v>1340375327.215193</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1687732226564606</v>
+        <v>0.1504864051395089</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0369150167667028</v>
+        <v>0.03870087680452145</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3527791691.459551</v>
+        <v>4930733548.758356</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1213831051164368</v>
+        <v>0.09262294011214696</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05747223905350349</v>
+        <v>0.05319608919387529</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>216</v>
+      </c>
+      <c r="J52" t="n">
+        <v>364</v>
+      </c>
+      <c r="K52" t="n">
+        <v>57.48907415559816</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2943588563.94393</v>
+        <v>2649303856.144358</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1637630155606972</v>
+        <v>0.1426838453784721</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02773796066443128</v>
+        <v>0.02796625713564008</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3418043650.41297</v>
+        <v>3244621934.96257</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1371182569895871</v>
+        <v>0.1257819661103888</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0460668460796848</v>
+        <v>0.05206360117128377</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>194</v>
+      </c>
+      <c r="J54" t="n">
+        <v>364</v>
+      </c>
+      <c r="K54" t="n">
+        <v>46.05046642807856</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3341577778.96894</v>
+        <v>3861018147.011002</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1964410271875077</v>
+        <v>0.1558130246213751</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02734450209572077</v>
+        <v>0.02331970195207684</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>174</v>
+      </c>
+      <c r="J55" t="n">
+        <v>365</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1549463851.244389</v>
+        <v>1737776717.542163</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1543926094229055</v>
+        <v>0.1581953411826322</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03662621733575098</v>
+        <v>0.04338821389065642</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3999841555.152404</v>
+        <v>2946408691.182343</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1173617938153029</v>
+        <v>0.1725541713868713</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02076935623139421</v>
+        <v>0.02177531480484567</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>151</v>
+      </c>
+      <c r="J57" t="n">
+        <v>363</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1632913050.966116</v>
+        <v>1661850942.31295</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1621558316253356</v>
+        <v>0.13112537869482</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03147826839121422</v>
+        <v>0.02809959523413262</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4594217483.969851</v>
+        <v>4714790856.748108</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1252944755332896</v>
+        <v>0.08220654133717561</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03621954236637249</v>
+        <v>0.03182308390703324</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>177</v>
+      </c>
+      <c r="J59" t="n">
+        <v>365</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3243012398.424986</v>
+        <v>3320070417.087464</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1600531385941473</v>
+        <v>0.1877091034568676</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02861967201658584</v>
+        <v>0.029035590004631</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>359</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2471659738.059992</v>
+        <v>2234392592.04295</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1325555692340539</v>
+        <v>0.1242497267208159</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02784498778292779</v>
+        <v>0.02834336817253133</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1443772980.181582</v>
+        <v>1299414001.769693</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1510158318986633</v>
+        <v>0.1237251594149898</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03444253289520128</v>
+        <v>0.03969875031435974</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3911549883.894137</v>
+        <v>5363131379.728539</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09959146190962187</v>
+        <v>0.1047011160363148</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04680217415304637</v>
+        <v>0.03447825117255807</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>180</v>
+      </c>
+      <c r="J63" t="n">
+        <v>364</v>
+      </c>
+      <c r="K63" t="n">
+        <v>55.65674902452673</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3793577496.020635</v>
+        <v>4286467194.678617</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1541547227987713</v>
+        <v>0.1775843897265581</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03555731511411139</v>
+        <v>0.02477876590094202</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>181</v>
+      </c>
+      <c r="J64" t="n">
+        <v>364</v>
+      </c>
+      <c r="K64" t="n">
+        <v>58.56041187944487</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2734,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4764879782.471924</v>
+        <v>5611234845.958443</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1474517087307836</v>
+        <v>0.1294667807920248</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02427207864653137</v>
+        <v>0.02404580593911222</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>277</v>
+      </c>
+      <c r="J65" t="n">
+        <v>365</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4843594399.146831</v>
+        <v>5611348417.003842</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1541592787193513</v>
+        <v>0.09866218835670457</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04417213379025599</v>
+        <v>0.05096255255119966</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>180</v>
+      </c>
+      <c r="J66" t="n">
+        <v>365</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2533422678.26976</v>
+        <v>2618056775.040574</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09806843826438025</v>
+        <v>0.09459982547026344</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03227814380820275</v>
+        <v>0.03902020200521105</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5707252940.597044</v>
+        <v>5217403752.797906</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1201895612311205</v>
+        <v>0.1387455283957829</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04086518901603664</v>
+        <v>0.03220074744346316</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>198</v>
+      </c>
+      <c r="J68" t="n">
+        <v>365</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1620076578.258764</v>
+        <v>2456430402.884502</v>
       </c>
       <c r="F69" t="n">
-        <v>0.132470410511424</v>
+        <v>0.1500590576884799</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03789908319204575</v>
+        <v>0.04766399872102204</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3685143233.525559</v>
+        <v>3207517994.205946</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08637385800285866</v>
+        <v>0.0901761546226979</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04364831529559703</v>
+        <v>0.04532474164562512</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5189002640.621006</v>
+        <v>3780088595.049541</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1470943840028366</v>
+        <v>0.1211789553715293</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02550129260156254</v>
+        <v>0.02222643520647687</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>263</v>
+      </c>
+      <c r="J71" t="n">
+        <v>365</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1926797160.008912</v>
+        <v>1740087972.911022</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08170783539147404</v>
+        <v>0.06572512808824214</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03857582202652398</v>
+        <v>0.03889189632889793</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2342801219.766796</v>
+        <v>2905501883.211637</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06931365156478944</v>
+        <v>0.08706938112148009</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03550778903512973</v>
+        <v>0.03496052117777354</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3210877523.926401</v>
+        <v>3908097694.984803</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1192162718738399</v>
+        <v>0.1590428324643684</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02459792548982834</v>
+        <v>0.03352946848592641</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>104</v>
+      </c>
+      <c r="J74" t="n">
+        <v>365</v>
+      </c>
+      <c r="K74" t="n">
+        <v>71.09613601221298</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1681647549.636427</v>
+        <v>1513517530.438174</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1348925283516871</v>
+        <v>0.1496926913762071</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0306913218715861</v>
+        <v>0.02937306776137176</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4035432992.823987</v>
+        <v>3269259350.252098</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1038279275222543</v>
+        <v>0.0838080576592678</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0310491297035922</v>
+        <v>0.02106774755358279</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>173</v>
+      </c>
+      <c r="J76" t="n">
+        <v>364</v>
+      </c>
+      <c r="K76" t="n">
+        <v>45.88635826751149</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1400725196.707558</v>
+        <v>1481016383.635114</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1448911274761517</v>
+        <v>0.1679259720679352</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02052248222548102</v>
+        <v>0.03160536517312748</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4169131994.729176</v>
+        <v>3540359257.487222</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0861228661409507</v>
+        <v>0.1106674430795536</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03490811684869897</v>
+        <v>0.04551428808032478</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>182</v>
+      </c>
+      <c r="J78" t="n">
+        <v>365</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1892042257.444471</v>
+        <v>1926395394.774167</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1251723370655415</v>
+        <v>0.1161899318565973</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02767501363609258</v>
+        <v>0.03534021202775607</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4385894053.409127</v>
+        <v>4631299990.999832</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06920203876284284</v>
+        <v>0.09290502192266126</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0335983350890917</v>
+        <v>0.03736319257261341</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>178</v>
+      </c>
+      <c r="J80" t="n">
+        <v>364</v>
+      </c>
+      <c r="K80" t="n">
+        <v>46.6664583207391</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3885149631.036557</v>
+        <v>4002581369.278972</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1191435929912194</v>
+        <v>0.1321779719667907</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03157835145191943</v>
+        <v>0.02000142752525876</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>169</v>
+      </c>
+      <c r="J81" t="n">
+        <v>364</v>
+      </c>
+      <c r="K81" t="n">
+        <v>56.9480223524215</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4583870805.746346</v>
+        <v>4510697858.430031</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1445603498002849</v>
+        <v>0.1375030918930656</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02938993450782954</v>
+        <v>0.02919561399920727</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>255</v>
+      </c>
+      <c r="J82" t="n">
+        <v>365</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1901772103.083137</v>
+        <v>2009761435.035675</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1492978758777644</v>
+        <v>0.105168423076905</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02830414034456977</v>
+        <v>0.0341476026055436</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1592499062.918243</v>
+        <v>2243260839.10126</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07826351156256567</v>
+        <v>0.1053371433742366</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03919051980220933</v>
+        <v>0.05222299352575609</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2323828209.000764</v>
+        <v>3013032009.178995</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1742743168380927</v>
+        <v>0.1612647215592331</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04518588908517825</v>
+        <v>0.04789446175127987</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2587921322.369009</v>
+        <v>1965738605.39465</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1342014212313781</v>
+        <v>0.1110769641578011</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02217924134098988</v>
+        <v>0.01868926905861812</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1057392165.951993</v>
+        <v>1091690125.678055</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1644700986132793</v>
+        <v>0.1688864138329721</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03124105761143212</v>
+        <v>0.02952349826536626</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2901534337.083161</v>
+        <v>2609548029.225199</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1676060176375513</v>
+        <v>0.1348479643668195</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03775731995758845</v>
+        <v>0.03355837108391647</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3006180751.776268</v>
+        <v>3361132335.281221</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1555340354416015</v>
+        <v>0.1363325481285085</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04079791701500285</v>
+        <v>0.0293105330624678</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1691948623.08861</v>
+        <v>1771298694.852994</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1366216880807782</v>
+        <v>0.103362357258814</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03466465037957175</v>
+        <v>0.04282161913288923</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1314748834.850447</v>
+        <v>1951759408.864165</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1577669843062124</v>
+        <v>0.119992590286022</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05018731139600876</v>
+        <v>0.04674139223112755</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2213340546.304636</v>
+        <v>2203369768.949317</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1011473020387482</v>
+        <v>0.06711432056184291</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04151166961051719</v>
+        <v>0.04365212991489155</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4097218251.721099</v>
+        <v>3136029661.847692</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1324862283702337</v>
+        <v>0.1418540910798632</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04264602317178354</v>
+        <v>0.04995285056973592</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>170</v>
+      </c>
+      <c r="J93" t="n">
+        <v>364</v>
+      </c>
+      <c r="K93" t="n">
+        <v>43.9993465165847</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2270703860.647295</v>
+        <v>2368398941.87725</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1415998709725408</v>
+        <v>0.1219837870590378</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02751127278875789</v>
+        <v>0.03715304566899179</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2040602783.208184</v>
+        <v>2521813495.532158</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1314032625667702</v>
+        <v>0.1319341638052981</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04706748928217688</v>
+        <v>0.03201894854476956</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2132344143.261501</v>
+        <v>1688060584.627166</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09168796838777239</v>
+        <v>0.09626374343798173</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04298908670988157</v>
+        <v>0.02940975429095121</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4536844222.478539</v>
+        <v>3531099410.478167</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1746391035912405</v>
+        <v>0.1750123009228157</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01891993990124399</v>
+        <v>0.02825676562481921</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>188</v>
+      </c>
+      <c r="J97" t="n">
+        <v>365</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3952159211.500267</v>
+        <v>3719062883.378351</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1043536115226737</v>
+        <v>0.08883183865648843</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03099594050739742</v>
+        <v>0.02051512448758244</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>90</v>
+      </c>
+      <c r="J98" t="n">
+        <v>365</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3229302109.083975</v>
+        <v>2529900447.266223</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1028936119592773</v>
+        <v>0.1025503738556958</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02306694791719176</v>
+        <v>0.02170940821691787</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4420337064.519365</v>
+        <v>3680061017.157388</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1771653813560395</v>
+        <v>0.1673843677918501</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02342631813529639</v>
+        <v>0.02807211345996847</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>165</v>
+      </c>
+      <c r="J100" t="n">
+        <v>365</v>
+      </c>
+      <c r="K100" t="n">
+        <v>61.29680341582366</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2344067999.870894</v>
+        <v>2337629471.016341</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1699465785560488</v>
+        <v>0.162873902884304</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04200486638513043</v>
+        <v>0.0539820277682698</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
